--- a/database/industries/nasaji/netrin/balancesheet/yearly.xlsx
+++ b/database/industries/nasaji/netrin/balancesheet/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\nasaji\netrin\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\nasaji\netrin\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801CE15C-F223-4D41-8FB8-3D40FE53D405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678E61EE-70CB-4A8A-9AFB-082302CB6D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -702,14 +702,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -718,7 +718,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -749,7 +749,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -780,7 +780,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -822,7 +822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -831,7 +831,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -842,7 +842,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
@@ -863,7 +863,7 @@
         <v>52042</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
@@ -905,7 +905,7 @@
         <v>270430</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
@@ -926,7 +926,7 @@
         <v>423002</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
@@ -947,7 +947,7 @@
         <v>257229</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>23</v>
       </c>
@@ -989,7 +989,7 @@
         <v>1002703</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>27</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>1518686</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>3860</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>32</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>1522546</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
         <v>33</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>2525249</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>34</v>
       </c>
@@ -1189,7 +1189,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>222954</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>36</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>37</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>60848</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>38</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>64597</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>39</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>5444</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>1250595</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
         <v>41</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>42</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
         <v>43</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>1604438</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>14712</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
         <v>48</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>14712</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
         <v>49</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>1619150</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>50</v>
       </c>
@@ -1515,7 +1515,7 @@
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
         <v>51</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>775000</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>-105443</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>29489</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
         <v>57</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
         <v>59</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
         <v>61</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>207053</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
         <v>63</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>906099</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
         <v>64</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>2525249</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>

--- a/database/industries/nasaji/netrin/balancesheet/yearly.xlsx
+++ b/database/industries/nasaji/netrin/balancesheet/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\nasaji\netrin\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\nasaji\netrin\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678E61EE-70CB-4A8A-9AFB-082302CB6D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBF4678-5C08-4A23-BDC0-B18C8A404F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,12 +49,12 @@
     <t>12 ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1398-02-04 (10)</t>
-  </si>
-  <si>
     <t>1399-02-28 (9)</t>
   </si>
   <si>
@@ -67,7 +64,10 @@
     <t>1401-03-24 (9)</t>
   </si>
   <si>
-    <t>1401-10-28 (6)</t>
+    <t>1402-02-27 (7)</t>
+  </si>
+  <si>
+    <t>1402-02-27</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -702,14 +702,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -718,7 +718,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -749,7 +749,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -780,7 +780,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -822,7 +822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -831,7 +831,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -842,28 +842,28 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>21197</v>
+        <v>25638</v>
       </c>
       <c r="E12" s="15">
-        <v>25638</v>
+        <v>7930</v>
       </c>
       <c r="F12" s="15">
-        <v>7930</v>
+        <v>93903</v>
       </c>
       <c r="G12" s="15">
-        <v>93903</v>
+        <v>52042</v>
       </c>
       <c r="H12" s="15">
-        <v>52042</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>99982</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -884,70 +884,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>134638</v>
+        <v>99837</v>
       </c>
       <c r="E14" s="15">
-        <v>99837</v>
+        <v>63087</v>
       </c>
       <c r="F14" s="15">
-        <v>63087</v>
+        <v>235183</v>
       </c>
       <c r="G14" s="15">
-        <v>235183</v>
+        <v>270430</v>
       </c>
       <c r="H14" s="15">
-        <v>270430</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>272871</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>86974</v>
+        <v>176152</v>
       </c>
       <c r="E15" s="11">
-        <v>176152</v>
+        <v>163068</v>
       </c>
       <c r="F15" s="11">
-        <v>163068</v>
+        <v>135550</v>
       </c>
       <c r="G15" s="11">
-        <v>135550</v>
+        <v>423002</v>
       </c>
       <c r="H15" s="11">
-        <v>423002</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+        <v>471511</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>38801</v>
+        <v>112328</v>
       </c>
       <c r="E16" s="15">
-        <v>112328</v>
+        <v>224113</v>
       </c>
       <c r="F16" s="15">
-        <v>224113</v>
+        <v>204723</v>
       </c>
       <c r="G16" s="15">
-        <v>204723</v>
+        <v>257229</v>
       </c>
       <c r="H16" s="15">
-        <v>257229</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>208470</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -968,28 +968,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>281610</v>
+        <v>413955</v>
       </c>
       <c r="E18" s="17">
-        <v>413955</v>
+        <v>458198</v>
       </c>
       <c r="F18" s="17">
-        <v>458198</v>
+        <v>669359</v>
       </c>
       <c r="G18" s="17">
-        <v>669359</v>
+        <v>1002703</v>
       </c>
       <c r="H18" s="17">
-        <v>1002703</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1052834</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1052,49 +1052,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>106464</v>
+        <v>91051</v>
       </c>
       <c r="E22" s="15">
-        <v>91051</v>
+        <v>132875</v>
       </c>
       <c r="F22" s="15">
-        <v>132875</v>
+        <v>834054</v>
       </c>
       <c r="G22" s="15">
-        <v>834054</v>
+        <v>1518686</v>
       </c>
       <c r="H22" s="15">
-        <v>1518686</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1548086</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>2983</v>
+        <v>3259</v>
       </c>
       <c r="E23" s="11">
-        <v>3259</v>
+        <v>3204</v>
       </c>
       <c r="F23" s="11">
-        <v>3204</v>
+        <v>3579</v>
       </c>
       <c r="G23" s="11">
-        <v>3579</v>
+        <v>3860</v>
       </c>
       <c r="H23" s="11">
-        <v>3860</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
@@ -1136,49 +1136,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>109447</v>
+        <v>94310</v>
       </c>
       <c r="E26" s="17">
-        <v>94310</v>
+        <v>136079</v>
       </c>
       <c r="F26" s="17">
-        <v>136079</v>
+        <v>837633</v>
       </c>
       <c r="G26" s="17">
-        <v>837633</v>
+        <v>1522546</v>
       </c>
       <c r="H26" s="17">
-        <v>1522546</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1552229</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>391057</v>
+        <v>508265</v>
       </c>
       <c r="E27" s="19">
-        <v>508265</v>
+        <v>594277</v>
       </c>
       <c r="F27" s="19">
-        <v>594277</v>
+        <v>1506992</v>
       </c>
       <c r="G27" s="19">
-        <v>1506992</v>
+        <v>2525249</v>
       </c>
       <c r="H27" s="19">
-        <v>2525249</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2605063</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>34</v>
       </c>
@@ -1189,28 +1189,28 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>57303</v>
+        <v>142840</v>
       </c>
       <c r="E29" s="15">
-        <v>142840</v>
+        <v>56559</v>
       </c>
       <c r="F29" s="15">
-        <v>56559</v>
+        <v>78520</v>
       </c>
       <c r="G29" s="15">
-        <v>78520</v>
+        <v>222954</v>
       </c>
       <c r="H29" s="15">
-        <v>222954</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+        <v>127783</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>36</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>37</v>
       </c>
@@ -1240,40 +1240,40 @@
         <v>0</v>
       </c>
       <c r="E31" s="15">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="F31" s="15">
-        <v>144</v>
+        <v>19974</v>
       </c>
       <c r="G31" s="15">
-        <v>19974</v>
+        <v>60848</v>
       </c>
       <c r="H31" s="15">
-        <v>60848</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <v>62945</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>18644</v>
+        <v>22120</v>
       </c>
       <c r="E32" s="11">
-        <v>22120</v>
+        <v>30499</v>
       </c>
       <c r="F32" s="11">
-        <v>30499</v>
+        <v>32979</v>
       </c>
       <c r="G32" s="11">
-        <v>32979</v>
+        <v>64597</v>
       </c>
       <c r="H32" s="11">
-        <v>64597</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+        <v>57208</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>39</v>
       </c>
@@ -1282,40 +1282,40 @@
         <v>0</v>
       </c>
       <c r="E33" s="15">
-        <v>0</v>
+        <v>1913</v>
       </c>
       <c r="F33" s="15">
-        <v>1913</v>
+        <v>2095</v>
       </c>
       <c r="G33" s="15">
-        <v>2095</v>
+        <v>5444</v>
       </c>
       <c r="H33" s="15">
-        <v>5444</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>28048</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>76417</v>
+        <v>73290</v>
       </c>
       <c r="E34" s="11">
-        <v>73290</v>
+        <v>104285</v>
       </c>
       <c r="F34" s="11">
-        <v>104285</v>
+        <v>507917</v>
       </c>
       <c r="G34" s="11">
-        <v>507917</v>
+        <v>1250595</v>
       </c>
       <c r="H34" s="11">
-        <v>1250595</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1344117</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>41</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>42</v>
       </c>
@@ -1357,28 +1357,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>152364</v>
+        <v>238250</v>
       </c>
       <c r="E37" s="17">
-        <v>238250</v>
+        <v>193400</v>
       </c>
       <c r="F37" s="17">
-        <v>193400</v>
+        <v>641485</v>
       </c>
       <c r="G37" s="17">
-        <v>641485</v>
+        <v>1604438</v>
       </c>
       <c r="H37" s="17">
-        <v>1604438</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1620101</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
@@ -1390,22 +1390,22 @@
         <v>0</v>
       </c>
       <c r="F38" s="11">
-        <v>0</v>
+        <v>7920</v>
       </c>
       <c r="G38" s="11">
-        <v>7920</v>
+        <v>0</v>
       </c>
       <c r="H38" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C39" s="15"/>
-      <c r="D39" s="15">
-        <v>0</v>
+      <c r="D39" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>30</v>
@@ -1420,7 +1420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="F40" s="11">
-        <v>0</v>
+        <v>6544</v>
       </c>
       <c r="G40" s="11">
-        <v>6544</v>
+        <v>14712</v>
       </c>
       <c r="H40" s="11">
-        <v>14712</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+        <v>14710</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>48</v>
       </c>
@@ -1474,37 +1474,37 @@
         <v>0</v>
       </c>
       <c r="F42" s="19">
-        <v>0</v>
+        <v>14464</v>
       </c>
       <c r="G42" s="19">
-        <v>14464</v>
+        <v>14712</v>
       </c>
       <c r="H42" s="19">
-        <v>14712</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+        <v>14710</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>152364</v>
+        <v>238250</v>
       </c>
       <c r="E43" s="17">
-        <v>238250</v>
+        <v>193400</v>
       </c>
       <c r="F43" s="17">
-        <v>193400</v>
+        <v>655949</v>
       </c>
       <c r="G43" s="17">
-        <v>655949</v>
+        <v>1619150</v>
       </c>
       <c r="H43" s="17">
-        <v>1619150</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1634811</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>50</v>
       </c>
@@ -1515,7 +1515,7 @@
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>51</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>100043</v>
       </c>
       <c r="F45" s="15">
-        <v>100043</v>
+        <v>775000</v>
       </c>
       <c r="G45" s="15">
         <v>775000</v>
@@ -1536,7 +1536,7 @@
         <v>775000</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
@@ -1548,16 +1548,16 @@
         <v>0</v>
       </c>
       <c r="F46" s="11">
-        <v>0</v>
+        <v>6137</v>
       </c>
       <c r="G46" s="11">
-        <v>6137</v>
+        <v>0</v>
       </c>
       <c r="H46" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
@@ -1590,22 +1590,22 @@
         <v>0</v>
       </c>
       <c r="F48" s="11">
-        <v>0</v>
+        <v>-111134</v>
       </c>
       <c r="G48" s="11">
-        <v>-111134</v>
+        <v>-105443</v>
       </c>
       <c r="H48" s="11">
-        <v>-105443</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-74129</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="15" t="s">
-        <v>30</v>
+      <c r="D49" s="15">
+        <v>0</v>
       </c>
       <c r="E49" s="15">
         <v>0</v>
@@ -1620,28 +1620,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>7192</v>
+        <v>10004</v>
       </c>
       <c r="E50" s="11">
         <v>10004</v>
       </c>
       <c r="F50" s="11">
-        <v>10004</v>
+        <v>18237</v>
       </c>
       <c r="G50" s="11">
-        <v>18237</v>
+        <v>29489</v>
       </c>
       <c r="H50" s="11">
-        <v>29489</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>57</v>
       </c>
@@ -1662,13 +1662,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C52" s="11"/>
-      <c r="D52" s="11">
-        <v>0</v>
+      <c r="D52" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>30</v>
@@ -1683,7 +1683,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>59</v>
       </c>
@@ -1704,13 +1704,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C54" s="11"/>
-      <c r="D54" s="11">
-        <v>0</v>
+      <c r="D54" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>30</v>
@@ -1725,7 +1725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>61</v>
       </c>
@@ -1746,70 +1746,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>131458</v>
+        <v>159968</v>
       </c>
       <c r="E56" s="11">
-        <v>159968</v>
+        <v>290830</v>
       </c>
       <c r="F56" s="11">
-        <v>290830</v>
+        <v>162803</v>
       </c>
       <c r="G56" s="11">
-        <v>162803</v>
+        <v>207053</v>
       </c>
       <c r="H56" s="11">
-        <v>207053</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+        <v>226038</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>238693</v>
+        <v>270015</v>
       </c>
       <c r="E57" s="17">
-        <v>270015</v>
+        <v>400877</v>
       </c>
       <c r="F57" s="17">
-        <v>400877</v>
+        <v>851043</v>
       </c>
       <c r="G57" s="17">
-        <v>851043</v>
+        <v>906099</v>
       </c>
       <c r="H57" s="17">
-        <v>906099</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+        <v>970252</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>391057</v>
+        <v>508265</v>
       </c>
       <c r="E58" s="19">
-        <v>508265</v>
+        <v>594277</v>
       </c>
       <c r="F58" s="19">
-        <v>594277</v>
+        <v>1506992</v>
       </c>
       <c r="G58" s="19">
-        <v>1506992</v>
+        <v>2525249</v>
       </c>
       <c r="H58" s="19">
-        <v>2525249</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2605063</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
